--- a/data/trans_dic/P12_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,58; 16,99</t>
+          <t>8,78; 17,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,84; 29,02</t>
+          <t>18,94; 29,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,51</t>
+          <t>2,15; 6,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,54; 23,02</t>
+          <t>13,68; 23,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,12; 38,22</t>
+          <t>26,82; 38,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,95</t>
+          <t>3,97; 8,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,93; 18,5</t>
+          <t>12,31; 18,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,59; 32,73</t>
+          <t>24,42; 32,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,6</t>
+          <t>3,45; 6,55</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,69; 26,43</t>
+          <t>19,25; 26,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,36; 14,14</t>
+          <t>8,3; 14,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,83</t>
+          <t>3,62; 7,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,15; 16,57</t>
+          <t>9,25; 16,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,05; 39,53</t>
+          <t>30,72; 39,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,85; 24,06</t>
+          <t>16,79; 24,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 11,71</t>
+          <t>6,68; 12,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,65; 19,27</t>
+          <t>13,76; 19,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,04; 31,64</t>
+          <t>26,19; 31,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,29; 18,25</t>
+          <t>13,47; 18,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,06</t>
+          <t>5,81; 9,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,32; 16,89</t>
+          <t>12,34; 16,72</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,02</t>
+          <t>3,71; 8,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,64; 18,24</t>
+          <t>10,42; 18,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,65; 15,6</t>
+          <t>8,73; 15,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 12,59</t>
+          <t>6,5; 12,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,86; 11,85</t>
+          <t>6,15; 12,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,96; 27,28</t>
+          <t>18,17; 27,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,84; 19,8</t>
+          <t>11,33; 19,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,26; 17,62</t>
+          <t>11,6; 17,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,99</t>
+          <t>5,71; 9,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,39; 21,38</t>
+          <t>15,86; 21,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,12; 16,39</t>
+          <t>11,13; 16,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,8; 14,08</t>
+          <t>9,98; 14,26</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,83; 16,79</t>
+          <t>9,87; 17,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,1; 23,38</t>
+          <t>17,04; 23,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,93; 22,07</t>
+          <t>13,61; 21,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,04; 21,03</t>
+          <t>11,06; 20,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,96; 23,14</t>
+          <t>14,8; 22,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,25; 42,18</t>
+          <t>34,32; 42,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,04; 31,85</t>
+          <t>22,23; 31,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,29; 20,45</t>
+          <t>13,37; 20,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,41; 18,91</t>
+          <t>13,54; 18,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,67; 31,91</t>
+          <t>26,69; 31,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,1; 25,43</t>
+          <t>19,38; 25,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,56; 19,4</t>
+          <t>13,24; 19,11</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,75; 30,41</t>
+          <t>18,64; 29,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,8; 15,9</t>
+          <t>6,86; 15,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,32; 25,36</t>
+          <t>14,64; 25,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,22; 44,12</t>
+          <t>32,66; 44,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,94; 39,05</t>
+          <t>25,6; 39,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,55; 33,15</t>
+          <t>20,46; 32,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,02; 28,86</t>
+          <t>17,74; 28,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,58; 53,57</t>
+          <t>43,3; 52,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,41; 33,14</t>
+          <t>23,97; 33,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,18; 22,72</t>
+          <t>15,08; 22,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,16; 24,82</t>
+          <t>17,15; 25,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,42; 47,51</t>
+          <t>39,91; 47,61</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,51; 13,94</t>
+          <t>6,77; 13,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,96; 18,62</t>
+          <t>10,07; 18,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,42; 14,79</t>
+          <t>7,31; 14,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,31; 17,38</t>
+          <t>10,24; 17,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,12; 18,73</t>
+          <t>10,3; 18,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,4; 28,12</t>
+          <t>18,07; 27,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,05; 24,3</t>
+          <t>14,31; 24,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,4; 19,33</t>
+          <t>12,23; 19,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,71; 15,14</t>
+          <t>9,55; 14,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,51; 22,65</t>
+          <t>15,32; 22,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,98; 18,28</t>
+          <t>12,17; 18,62</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,16; 17,28</t>
+          <t>12,21; 17,08</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,19; 14,65</t>
+          <t>9,53; 14,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,11; 20,32</t>
+          <t>13,98; 20,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,9; 16,54</t>
+          <t>10,64; 16,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,15; 21,65</t>
+          <t>15,25; 21,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,47; 20,36</t>
+          <t>14,48; 20,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,26; 26,86</t>
+          <t>20,08; 26,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,45; 20,13</t>
+          <t>14,32; 19,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,33; 60,92</t>
+          <t>26,41; 61,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,58; 16,44</t>
+          <t>12,66; 16,54</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,27; 22,63</t>
+          <t>17,97; 22,47</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,42; 17,57</t>
+          <t>13,52; 17,64</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>22,46; 47,65</t>
+          <t>22,24; 46,73</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>23,03; 29,91</t>
+          <t>23,41; 29,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,78; 19,49</t>
+          <t>13,95; 19,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,59; 6,71</t>
+          <t>3,64; 7,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,01; 11,65</t>
+          <t>7,4; 11,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,93; 31,29</t>
+          <t>24,51; 31,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,66; 27,07</t>
+          <t>20,84; 27,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,82; 11,06</t>
+          <t>6,92; 11,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,67; 19,15</t>
+          <t>14,7; 19,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24,76; 29,48</t>
+          <t>25,07; 29,44</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>18,21; 22,51</t>
+          <t>18,35; 22,68</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,78; 8,43</t>
+          <t>5,66; 8,41</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,44; 14,74</t>
+          <t>11,26; 14,74</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,64; 18,27</t>
+          <t>15,58; 18,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,47; 17,15</t>
+          <t>14,32; 16,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,62; 12,82</t>
+          <t>10,59; 12,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,37; 14,87</t>
+          <t>12,28; 14,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>21,04; 23,91</t>
+          <t>21,09; 23,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,43; 27,56</t>
+          <t>24,39; 27,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,32; 18,02</t>
+          <t>15,41; 17,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,11; 29,41</t>
+          <t>19,02; 30,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,66; 20,69</t>
+          <t>18,84; 20,71</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19,94; 21,97</t>
+          <t>19,85; 21,95</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>13,36; 15,08</t>
+          <t>13,39; 15,09</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>16,4; 22,8</t>
+          <t>16,36; 23,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,78; 17,56</t>
+          <t>8,52; 16,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,94; 29,93</t>
+          <t>18,66; 29,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,68; 23,04</t>
+          <t>13,31; 22,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,82; 38,69</t>
+          <t>27,16; 38,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,31; 18,42</t>
+          <t>12,01; 18,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,42; 32,15</t>
+          <t>24,59; 32,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,25; 26,9</t>
+          <t>18,7; 26,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,3; 14,27</t>
+          <t>8,11; 14,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,83</t>
+          <t>3,69; 7,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,72; 39,41</t>
+          <t>30,69; 39,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,79; 24,17</t>
+          <t>17,0; 23,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,68; 12,0</t>
+          <t>6,9; 11,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,19; 31,95</t>
+          <t>25,75; 31,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,47; 18,07</t>
+          <t>13,67; 18,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,08</t>
+          <t>5,77; 9,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 8,95</t>
+          <t>3,91; 9,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,42; 18,14</t>
+          <t>10,29; 18,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,73; 15,61</t>
+          <t>8,94; 15,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 12,38</t>
+          <t>5,92; 11,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,17; 27,23</t>
+          <t>18,12; 27,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,33; 19,49</t>
+          <t>11,48; 19,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,95</t>
+          <t>5,68; 9,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,86; 21,87</t>
+          <t>15,61; 21,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,13; 16,36</t>
+          <t>11,21; 16,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,87; 17,01</t>
+          <t>9,9; 17,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,04; 23,23</t>
+          <t>17,31; 23,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,61; 21,73</t>
+          <t>13,87; 22,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,8; 22,42</t>
+          <t>14,74; 22,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,32; 42,23</t>
+          <t>34,48; 41,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,23; 31,71</t>
+          <t>22,22; 31,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,54; 18,9</t>
+          <t>13,51; 18,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,69; 31,96</t>
+          <t>26,66; 31,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,38; 25,39</t>
+          <t>19,29; 25,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,64; 29,67</t>
+          <t>19,19; 30,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,86; 15,14</t>
+          <t>6,64; 15,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,64; 25,35</t>
+          <t>14,82; 25,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,6; 39,45</t>
+          <t>25,88; 39,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,46; 32,5</t>
+          <t>20,97; 32,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,74; 28,68</t>
+          <t>17,84; 28,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,97; 33,01</t>
+          <t>24,26; 32,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,08; 22,69</t>
+          <t>15,18; 23,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,15; 25,23</t>
+          <t>17,57; 25,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,77; 13,8</t>
+          <t>6,9; 13,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,07; 18,87</t>
+          <t>10,09; 18,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,31; 14,71</t>
+          <t>7,12; 14,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,3; 18,54</t>
+          <t>10,42; 19,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,07; 27,69</t>
+          <t>18,85; 28,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,31; 24,04</t>
+          <t>14,32; 24,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,55; 14,66</t>
+          <t>9,43; 15,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,32; 22,12</t>
+          <t>15,37; 22,22</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,17; 18,62</t>
+          <t>11,82; 18,32</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,53; 14,59</t>
+          <t>9,25; 14,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,98; 20,0</t>
+          <t>14,47; 20,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,64; 16,15</t>
+          <t>10,61; 16,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,48; 20,47</t>
+          <t>14,03; 20,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,08; 26,68</t>
+          <t>19,97; 26,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,32; 19,91</t>
+          <t>14,38; 20,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,66; 16,54</t>
+          <t>12,57; 16,5</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,97; 22,47</t>
+          <t>17,94; 22,6</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,52; 17,64</t>
+          <t>13,34; 17,31</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>23,41; 29,93</t>
+          <t>22,74; 29,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,95; 19,81</t>
+          <t>13,89; 19,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,0</t>
+          <t>3,58; 6,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,51; 31,01</t>
+          <t>24,61; 31,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,84; 27,03</t>
+          <t>20,78; 26,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,92; 11,06</t>
+          <t>6,8; 11,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,07; 29,44</t>
+          <t>24,8; 29,7</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>18,35; 22,68</t>
+          <t>18,32; 22,35</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,66; 8,41</t>
+          <t>5,66; 8,27</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,58; 18,3</t>
+          <t>15,59; 18,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,32; 16,96</t>
+          <t>14,63; 17,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,59; 12,9</t>
+          <t>10,63; 12,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>21,09; 23,92</t>
+          <t>20,95; 23,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,39; 27,46</t>
+          <t>24,43; 27,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,41; 17,97</t>
+          <t>15,4; 17,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,84; 20,71</t>
+          <t>18,76; 20,76</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19,85; 21,95</t>
+          <t>19,93; 22,01</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>13,39; 15,09</t>
+          <t>13,38; 15,08</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P12_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces</t>
+          <t>Población que se sintió calmada y tranquila alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 16,66</t>
+          <t>8,58; 16,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,66; 29,45</t>
+          <t>18,84; 29,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,58</t>
+          <t>2,12; 6,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,31; 22,97</t>
+          <t>13,54; 23,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,16; 38,22</t>
+          <t>27,12; 38,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,97; 8,0</t>
+          <t>4,0; 7,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,01; 18,26</t>
+          <t>11,93; 18,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,59; 32,12</t>
+          <t>24,59; 32,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,55</t>
+          <t>3,62; 6,6</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,7; 26,4</t>
+          <t>18,69; 26,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,11; 14,26</t>
+          <t>8,36; 14,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,82</t>
+          <t>3,63; 7,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,25; 16,5</t>
+          <t>9,15; 16,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,69; 39,2</t>
+          <t>31,05; 39,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,0; 23,92</t>
+          <t>16,85; 24,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,9; 11,79</t>
+          <t>6,75; 11,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,76; 19,43</t>
+          <t>13,65; 19,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,75; 31,59</t>
+          <t>26,04; 31,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,67; 18,28</t>
+          <t>13,29; 18,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,19</t>
+          <t>5,82; 9,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,34; 16,72</t>
+          <t>12,32; 16,89</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 9,24</t>
+          <t>3,74; 9,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,29; 18,5</t>
+          <t>10,64; 18,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,94; 15,73</t>
+          <t>8,65; 15,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 12,17</t>
+          <t>6,38; 12,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,88</t>
+          <t>5,86; 11,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,12; 27,47</t>
+          <t>17,96; 27,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,48; 19,33</t>
+          <t>11,84; 19,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,6; 17,45</t>
+          <t>11,26; 17,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 9,62</t>
+          <t>5,79; 9,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,61; 21,85</t>
+          <t>15,39; 21,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,21; 16,34</t>
+          <t>11,12; 16,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,98; 14,26</t>
+          <t>9,8; 14,08</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 17,16</t>
+          <t>9,83; 16,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 23,56</t>
+          <t>17,1; 23,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,87; 22,15</t>
+          <t>13,93; 22,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,06; 20,77</t>
+          <t>11,04; 21,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,74; 22,45</t>
+          <t>14,96; 23,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,48; 41,93</t>
+          <t>34,25; 42,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,22; 31,77</t>
+          <t>22,04; 31,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,37; 20,99</t>
+          <t>13,29; 20,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,51; 18,81</t>
+          <t>13,41; 18,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,66; 31,98</t>
+          <t>26,67; 31,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,29; 25,31</t>
+          <t>19,1; 25,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,24; 19,11</t>
+          <t>13,56; 19,4</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,19; 30,56</t>
+          <t>18,75; 30,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,64; 15,16</t>
+          <t>6,8; 15,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,82; 25,81</t>
+          <t>14,32; 25,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,66; 44,29</t>
+          <t>32,22; 44,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,88; 39,15</t>
+          <t>25,94; 39,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,97; 32,86</t>
+          <t>20,55; 33,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,84; 28,45</t>
+          <t>17,02; 28,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,3; 52,99</t>
+          <t>43,58; 53,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,26; 32,85</t>
+          <t>24,41; 33,14</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,18; 23,08</t>
+          <t>15,18; 22,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,57; 25,23</t>
+          <t>17,16; 24,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,91; 47,61</t>
+          <t>39,42; 47,51</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,9; 13,84</t>
+          <t>6,51; 13,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,09; 18,99</t>
+          <t>9,96; 18,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,12; 14,13</t>
+          <t>7,42; 14,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,24; 17,46</t>
+          <t>10,31; 17,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,42; 19,03</t>
+          <t>10,12; 18,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,85; 28,6</t>
+          <t>18,4; 28,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,32; 24,61</t>
+          <t>14,05; 24,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,23; 19,2</t>
+          <t>12,4; 19,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,43; 15,23</t>
+          <t>9,71; 15,14</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,37; 22,22</t>
+          <t>15,51; 22,65</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,82; 18,32</t>
+          <t>11,98; 18,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,21; 17,08</t>
+          <t>12,16; 17,28</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,25; 14,47</t>
+          <t>9,19; 14,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,47; 20,27</t>
+          <t>14,11; 20,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,61; 16,52</t>
+          <t>10,9; 16,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,25; 21,58</t>
+          <t>15,15; 21,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,03; 20,39</t>
+          <t>14,47; 20,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,97; 26,8</t>
+          <t>20,26; 26,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,38; 20,35</t>
+          <t>14,45; 20,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,41; 61,95</t>
+          <t>26,33; 60,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,57; 16,5</t>
+          <t>12,58; 16,44</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,94; 22,6</t>
+          <t>18,27; 22,63</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,34; 17,31</t>
+          <t>13,42; 17,57</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>22,24; 46,73</t>
+          <t>22,46; 47,65</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>22,74; 29,52</t>
+          <t>23,03; 29,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,89; 19,71</t>
+          <t>13,78; 19,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,6</t>
+          <t>3,59; 6,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,4; 11,55</t>
+          <t>7,01; 11,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,61; 31,29</t>
+          <t>24,93; 31,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,78; 26,93</t>
+          <t>20,66; 27,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,12</t>
+          <t>6,82; 11,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,7; 19,4</t>
+          <t>14,67; 19,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24,8; 29,7</t>
+          <t>24,76; 29,48</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>18,32; 22,35</t>
+          <t>18,21; 22,51</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,66; 8,27</t>
+          <t>5,78; 8,43</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,26; 14,74</t>
+          <t>11,44; 14,74</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,59; 18,34</t>
+          <t>15,64; 18,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,63; 17,2</t>
+          <t>14,47; 17,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,63; 12,82</t>
+          <t>10,62; 12,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,28; 14,89</t>
+          <t>12,37; 14,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20,95; 23,81</t>
+          <t>21,04; 23,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,43; 27,46</t>
+          <t>24,43; 27,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,4; 17,98</t>
+          <t>15,32; 18,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,02; 30,34</t>
+          <t>19,11; 29,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,76; 20,76</t>
+          <t>18,66; 20,69</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19,93; 22,01</t>
+          <t>19,94; 21,97</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>13,38; 15,08</t>
+          <t>13,36; 15,08</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>16,36; 23,38</t>
+          <t>16,4; 22,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,64%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,91; 28,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,51</t>
+          <t>1,99; 6,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,28; 47,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,95</t>
+          <t>3,93; 7,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,43; 36,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,6</t>
+          <t>3,41; 6,44</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>14,3%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,15; 16,57</t>
+          <t>9,03; 16,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,65; 19,27</t>
+          <t>13,69; 19,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,32; 16,89</t>
+          <t>12,2; 16,89</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>11,63%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 12,59</t>
+          <t>6,23; 12,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,26; 17,62</t>
+          <t>11,13; 17,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,8; 14,08</t>
+          <t>9,61; 13,81</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,25%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>26,96%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>14,31%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,1; 23,38</t>
+          <t>13,59; 21,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,04; 21,03</t>
+          <t>10,85; 21,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,25; 42,18</t>
+          <t>30,61; 40,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,29; 20,45</t>
+          <t>8,25; 18,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,67; 31,91</t>
+          <t>23,43; 30,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,56; 19,4</t>
+          <t>10,62; 17,98</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>38,14%</t>
+          <t>38,35%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>48,07%</t>
+          <t>48,64%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>43,51%</t>
+          <t>43,89%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,22; 44,12</t>
+          <t>32,43; 44,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,58; 53,57</t>
+          <t>44,21; 53,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,42; 47,51</t>
+          <t>39,76; 47,8</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>14,35%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,31; 17,38</t>
+          <t>10,21; 17,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,4; 19,33</t>
+          <t>12,37; 19,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,16; 17,28</t>
+          <t>12,0; 16,89</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>37,35%</t>
+          <t>44,82%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>33,37%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,15; 21,65</t>
+          <t>14,76; 21,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,33; 60,92</t>
+          <t>26,28; 73,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>22,46; 47,65</t>
+          <t>22,11; 58,92</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>11,59%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,01; 11,65</t>
+          <t>3,18; 10,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,67; 19,15</t>
+          <t>14,89; 19,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,44; 14,74</t>
+          <t>7,14; 14,15</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>18,17%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,37; 14,87</t>
+          <t>9,98; 14,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,11; 29,41</t>
+          <t>18,43; 37,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>16,4; 22,8</t>
+          <t>15,34; 26,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,58; 16,99</t>
+          <t>8,68; 17,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,91; 28,57</t>
+          <t>18,58; 28,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,84; 29,02</t>
+          <t>18,95; 29,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,37</t>
+          <t>1,92; 6,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,54; 23,02</t>
+          <t>13,71; 23,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,28; 47,29</t>
+          <t>35,16; 47,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,12; 38,22</t>
+          <t>27,1; 38,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,72</t>
+          <t>3,83; 7,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,93; 18,5</t>
+          <t>12,26; 18,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,43; 36,49</t>
+          <t>28,45; 36,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,59; 32,73</t>
+          <t>24,66; 32,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,44</t>
+          <t>3,4; 6,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,69; 26,43</t>
+          <t>18,29; 26,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,36; 14,14</t>
+          <t>8,58; 14,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,83</t>
+          <t>3,67; 7,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,03; 16,63</t>
+          <t>8,92; 16,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,05; 39,53</t>
+          <t>30,71; 39,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,85; 24,06</t>
+          <t>16,79; 23,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 11,71</t>
+          <t>6,85; 12,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,69; 19,25</t>
+          <t>13,68; 19,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,04; 31,64</t>
+          <t>26,01; 31,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,29; 18,25</t>
+          <t>13,51; 17,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,06</t>
+          <t>5,72; 8,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,2; 16,89</t>
+          <t>11,93; 16,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,02</t>
+          <t>3,77; 9,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,64; 18,24</t>
+          <t>10,64; 18,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,65; 15,6</t>
+          <t>8,79; 15,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 12,41</t>
+          <t>6,22; 12,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,86; 11,85</t>
+          <t>5,82; 12,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,96; 27,28</t>
+          <t>17,93; 27,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,84; 19,8</t>
+          <t>11,69; 19,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,13; 17,43</t>
+          <t>11,23; 16,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,99</t>
+          <t>5,69; 9,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,39; 21,38</t>
+          <t>15,51; 21,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,12; 16,39</t>
+          <t>11,18; 16,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 13,81</t>
+          <t>9,71; 13,88</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,83; 16,79</t>
+          <t>10,0; 17,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,59; 21,91</t>
+          <t>14,22; 22,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,93; 22,07</t>
+          <t>14,0; 21,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 21,13</t>
+          <t>10,8; 20,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,96; 23,14</t>
+          <t>14,65; 22,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,61; 40,39</t>
+          <t>30,88; 40,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,04; 31,85</t>
+          <t>21,82; 31,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,25; 18,05</t>
+          <t>7,88; 18,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,41; 18,91</t>
+          <t>13,41; 18,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,43; 30,2</t>
+          <t>23,65; 30,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,1; 25,43</t>
+          <t>19,0; 25,41</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,62; 17,98</t>
+          <t>10,57; 17,62</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,75; 30,41</t>
+          <t>19,06; 30,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,8; 15,9</t>
+          <t>7,05; 15,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,32; 25,36</t>
+          <t>14,47; 25,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,43; 44,25</t>
+          <t>32,79; 44,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,94; 39,05</t>
+          <t>25,99; 38,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,55; 33,15</t>
+          <t>20,49; 32,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,02; 28,86</t>
+          <t>17,25; 28,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44,21; 53,93</t>
+          <t>44,08; 53,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,41; 33,14</t>
+          <t>24,21; 32,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,18; 22,72</t>
+          <t>14,98; 22,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,16; 24,82</t>
+          <t>17,22; 24,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,76; 47,8</t>
+          <t>40,12; 47,7</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,51; 13,94</t>
+          <t>6,54; 13,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,96; 18,62</t>
+          <t>9,63; 18,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,42; 14,79</t>
+          <t>7,43; 14,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,21; 17,21</t>
+          <t>9,73; 17,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,12; 18,73</t>
+          <t>10,31; 19,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,4; 28,12</t>
+          <t>18,59; 28,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,05; 24,3</t>
+          <t>14,13; 24,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,37; 19,25</t>
+          <t>12,91; 19,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,71; 15,14</t>
+          <t>9,66; 15,13</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,51; 22,65</t>
+          <t>15,33; 22,14</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,98; 18,28</t>
+          <t>12,03; 18,21</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,0; 16,89</t>
+          <t>12,07; 16,84</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,19; 14,65</t>
+          <t>9,28; 14,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,11; 20,32</t>
+          <t>14,16; 19,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,9; 16,54</t>
+          <t>10,69; 16,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,76; 21,33</t>
+          <t>14,68; 21,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,47; 20,36</t>
+          <t>14,1; 20,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,26; 26,86</t>
+          <t>20,1; 26,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,45; 20,13</t>
+          <t>14,12; 20,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,28; 73,2</t>
+          <t>26,1; 69,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,58; 16,44</t>
+          <t>12,45; 16,57</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,27; 22,63</t>
+          <t>18,2; 22,48</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,42; 17,57</t>
+          <t>13,26; 17,35</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>22,11; 58,92</t>
+          <t>21,93; 60,84</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>23,03; 29,91</t>
+          <t>23,33; 29,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,78; 19,49</t>
+          <t>14,08; 19,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,59; 6,71</t>
+          <t>3,55; 6,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,18; 10,65</t>
+          <t>3,16; 10,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,93; 31,29</t>
+          <t>24,51; 30,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,66; 27,07</t>
+          <t>20,88; 26,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,82; 11,06</t>
+          <t>6,82; 11,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,89; 19,36</t>
+          <t>14,87; 19,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24,76; 29,48</t>
+          <t>24,82; 29,37</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>18,21; 22,51</t>
+          <t>18,26; 22,5</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,78; 8,43</t>
+          <t>5,68; 8,33</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,14; 14,15</t>
+          <t>7,21; 14,11</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,64; 18,27</t>
+          <t>15,61; 18,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,47; 17,15</t>
+          <t>14,48; 17,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,62; 12,82</t>
+          <t>10,46; 12,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,98; 14,11</t>
+          <t>9,69; 14,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>21,04; 23,91</t>
+          <t>20,9; 23,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,43; 27,56</t>
+          <t>24,45; 27,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,32; 18,02</t>
+          <t>15,38; 18,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18,43; 37,26</t>
+          <t>18,59; 38,01</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,66; 20,69</t>
+          <t>18,66; 20,82</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19,94; 21,97</t>
+          <t>19,97; 22,05</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>13,36; 15,08</t>
+          <t>13,37; 15,12</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>15,34; 26,25</t>
+          <t>15,19; 26,29</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se sintió calmada y tranquila alguna vez o algunas veces</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>34061</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>68559</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>70364</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11851</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>46502</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>119047</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>94448</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>16035</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>80563</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>187605</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>164812</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>27886</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>23694; 46926</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>54759; 84816</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>55674; 86757</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5969; 19680</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>35752; 60251</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>100637; 137257</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>78242; 110235</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11091; 22357</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>65438; 99839</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>165276; 212894</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>143656; 190058</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20418; 37345</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>110769</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>56068</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>27396</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>63887</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>176026</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>104854</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>47564</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>83842</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>286795</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>74960</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>147729</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>90169; 130922</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>43360; 71650</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>18407; 39064</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>46252; 84457</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>154738; 198500</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>87266; 123640</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>35743; 64651</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>70424; 99321</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>259345; 316749</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>138515; 184267</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>58586; 91628</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>123278; 173392</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19420</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>45559</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>37991</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>28203</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>29631</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>77315</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>50657</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>49073</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>49051</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>122875</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>88649</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>77275</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12025; 28907</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>34481; 59261</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>27991; 49342</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19654; 38011</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19518; 40440</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>61159; 93964</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>39086; 65236</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>39126; 59005</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>37257; 64906</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>103126; 143602</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>73028; 106246</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>64532; 92260</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>47061</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>65964</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>64802</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>46944</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>69038</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>139223</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>103120</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>65753</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>116099</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>205186</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>167922</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>112697</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>35872; 63182</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>52879; 83035</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>51793; 79686</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>33671; 63553</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>54421; 85030</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>120102; 157334</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>84127; 120649</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>37487; 86176</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>97891; 135869</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>179985; 230471</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>143558; 191959</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>83229; 138715</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>49477</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>22562</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>40715</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>68548</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>66807</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>58143</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>49701</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>101273</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>116284</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>80705</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>90415</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>169821</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>38756; 62539</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>14986; 33277</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>30568; 53513</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>58610; 80050</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>53982; 80202</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>44994; 71037</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>37708; 62752</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>91787; 111271</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>99480; 134147</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>64750; 98521</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>74002; 106706</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>155235; 184592</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>26524</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>38280</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>27732</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>35597</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>39835</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>64934</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>51866</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>39997</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>66359</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>103214</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>79598</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>75594</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>17709; 37483</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>26395; 51056</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>19548; 39172</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>26231; 46468</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>28686; 53941</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>51880; 80130</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>38599; 66120</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>33180; 50084</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>53007; 83061</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>84796; 122458</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>64528; 97657</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>63571; 88683</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>71922</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>112955</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>87665</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>111066</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>109329</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>161204</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>118439</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>380660</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>181250</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>274159</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>206105</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>491727</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>57046; 89827</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>93875; 132209</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>70215; 106422</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>91631; 133466</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>90015; 131168</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>139289; 184564</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>97421; 139481</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>221690; 591246</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>156054; 207631</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>246787; 304740</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>178617; 233642</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>323136; 896570</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>195434</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>130269</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>38339</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>68899</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>218875</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>194786</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>72761</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>121871</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>414310</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>325055</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>111100</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>190770</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>173562; 221314</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>109545; 154392</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>27580; 50256</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>29375; 100691</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>192001; 242008</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>171837; 221812</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>56339; 92039</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>106717; 139332</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>379107; 448501</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>292238; 360153</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>91123; 133626</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>118705; 232351</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>738</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1148</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1287</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1662</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>554668</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>540216</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>395005</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>434995</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>756042</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>919506</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>588555</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>858503</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1310710</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1459722</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>983560</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1293498</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>511610; 596679</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>495880; 583831</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>354814; 433259</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>335345; 486187</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>706186; 803807</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>867953; 976539</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>544270; 637888</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>680531; 1391476</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1242138; 1385570</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1392870; 1538054</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>926931; 1047567</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1081742; 1871800</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>